--- a/Relatório Reprovações.xlsx
+++ b/Relatório Reprovações.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b86028a9b73dc8c3/Área de Trabalho/Tutoria/Levantamento de Reprovações/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doutorado\Tutoria22_2\Levantamento de Reprovações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{2F88E14E-84F5-4953-B3DD-E822DFBF3BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6842C3BC-ADDD-4AA4-87E7-658EB5EE460F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD07A155-59BA-45CF-B86B-F455E17729B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="8" xr2:uid="{C69D5736-83D6-45F3-A7EF-AC6A9948C265}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{C69D5736-83D6-45F3-A7EF-AC6A9948C265}"/>
   </bookViews>
   <sheets>
     <sheet name="Reprovações" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Taxa de Sucesso" sheetId="8" r:id="rId3"/>
     <sheet name="Por Ciclo" sheetId="3" r:id="rId4"/>
     <sheet name="Métricas" sheetId="4" r:id="rId5"/>
-    <sheet name="Top Top" sheetId="5" r:id="rId6"/>
-    <sheet name="Comparação Das top" sheetId="6" r:id="rId7"/>
+    <sheet name="Maiores métricas" sheetId="5" r:id="rId6"/>
+    <sheet name="Comparação Das maiores" sheetId="6" r:id="rId7"/>
     <sheet name="Ciclo Profissional" sheetId="7" r:id="rId8"/>
     <sheet name="TCC" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="174">
   <si>
     <t>Período</t>
   </si>
@@ -558,6 +558,34 @@
   <si>
     <t>Sem reprov</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alunos Ingresantes no ano </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(I)</t>
+    </r>
+  </si>
+  <si>
+    <t>Alunos Ingresantes no ano (I)</t>
+  </si>
+  <si>
+    <t>1º</t>
+  </si>
+  <si>
+    <t>Alunos Diplomados (D)</t>
+  </si>
+  <si>
+    <t>Taxa de Sucesso (D/I)</t>
+  </si>
 </sst>
 </file>
 
@@ -593,7 +621,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,8 +652,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -648,12 +688,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -678,6 +755,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2557,7 +2660,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$7</c:f>
+              <c:f>'Comparação Das maiores'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2578,7 +2681,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$2:$P$2</c:f>
+              <c:f>'Comparação Das maiores'!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2632,7 +2735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$7:$P$7</c:f>
+              <c:f>'Comparação Das maiores'!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2695,7 +2798,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$8</c:f>
+              <c:f>'Comparação Das maiores'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2716,7 +2819,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$2:$P$2</c:f>
+              <c:f>'Comparação Das maiores'!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2770,7 +2873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$8:$P$8</c:f>
+              <c:f>'Comparação Das maiores'!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2833,7 +2936,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$9</c:f>
+              <c:f>'Comparação Das maiores'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2854,7 +2957,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$2:$P$2</c:f>
+              <c:f>'Comparação Das maiores'!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2908,7 +3011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$9:$P$9</c:f>
+              <c:f>'Comparação Das maiores'!$B$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2986,7 +3089,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$10</c:f>
+              <c:f>'Comparação Das maiores'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3009,7 +3112,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$10:$P$10</c:f>
+              <c:f>'Comparação Das maiores'!$B$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3357,7 +3460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$12</c:f>
+              <c:f>'Comparação Das maiores'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3378,7 +3481,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$2:$P$2</c:f>
+              <c:f>'Comparação Das maiores'!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3432,7 +3535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$12:$P$12</c:f>
+              <c:f>'Comparação Das maiores'!$B$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3511,7 +3614,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$13</c:f>
+              <c:f>'Comparação Das maiores'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3534,7 +3637,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$13:$P$13</c:f>
+              <c:f>'Comparação Das maiores'!$B$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -10850,7 +10953,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$3</c:f>
+              <c:f>'Comparação Das maiores'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10871,7 +10974,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$2:$P$2</c:f>
+              <c:f>'Comparação Das maiores'!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -10925,7 +11028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$3:$P$3</c:f>
+              <c:f>'Comparação Das maiores'!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -10988,7 +11091,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$4</c:f>
+              <c:f>'Comparação Das maiores'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11009,7 +11112,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$2:$P$2</c:f>
+              <c:f>'Comparação Das maiores'!$B$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11063,7 +11166,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$4:$P$4</c:f>
+              <c:f>'Comparação Das maiores'!$B$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -11142,7 +11245,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparação Das top'!$A$5</c:f>
+              <c:f>'Comparação Das maiores'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11165,7 +11268,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Comparação Das top'!$B$5:$P$5</c:f>
+              <c:f>'Comparação Das maiores'!$B$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -17614,16 +17717,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168910</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17839,10 +17942,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18134,7 +18233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18144,13 +18243,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C56724-4B25-4B6D-ABCD-DFD0E1D45213}">
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView topLeftCell="C100" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="80.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="18" width="10.453125" customWidth="1"/>
@@ -24551,7 +24651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1179BAB2-DE01-43F8-A371-A7F598CB667F}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="E39" workbookViewId="0">
+    <sheetView topLeftCell="E21" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -26943,10 +27043,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69152156-83D1-40D1-859D-4282CAB53C24}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26955,7 +27055,7 @@
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>165</v>
       </c>
@@ -26971,8 +27071,22 @@
       <c r="F1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26992,8 +27106,44 @@
         <f t="shared" ref="F2:F15" si="0">MEDIAN(C2:E2)</f>
         <v>0.70189999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="16">
+        <v>2017.1</v>
+      </c>
+      <c r="I2" s="16">
+        <v>2017.2</v>
+      </c>
+      <c r="J2" s="16">
+        <v>2018.1</v>
+      </c>
+      <c r="K2" s="17">
+        <v>2018.2</v>
+      </c>
+      <c r="L2" s="17">
+        <v>2019.1</v>
+      </c>
+      <c r="M2" s="17">
+        <v>2019.2</v>
+      </c>
+      <c r="N2" s="17">
+        <v>2020.1</v>
+      </c>
+      <c r="O2" s="17">
+        <v>2020.2</v>
+      </c>
+      <c r="P2" s="17">
+        <v>2021.1</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>2021.2</v>
+      </c>
+      <c r="R2" s="17">
+        <v>2022.1</v>
+      </c>
+      <c r="S2" s="17">
+        <v>2022.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27013,8 +27163,44 @@
         <f t="shared" si="0"/>
         <v>0.57140000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="16">
+        <v>61</v>
+      </c>
+      <c r="I3" s="16">
+        <v>53</v>
+      </c>
+      <c r="J3" s="16">
+        <v>53</v>
+      </c>
+      <c r="K3" s="16">
+        <v>56</v>
+      </c>
+      <c r="L3" s="16">
+        <v>48</v>
+      </c>
+      <c r="M3" s="16">
+        <v>57</v>
+      </c>
+      <c r="N3" s="16">
+        <v>84</v>
+      </c>
+      <c r="O3" s="16">
+        <v>51</v>
+      </c>
+      <c r="P3" s="16">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>52</v>
+      </c>
+      <c r="R3" s="16">
+        <v>44</v>
+      </c>
+      <c r="S3" s="16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27034,8 +27220,11 @@
         <f t="shared" si="0"/>
         <v>0.53390000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27055,8 +27244,28 @@
         <f t="shared" si="0"/>
         <v>0.53210000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="18">
+        <v>2012</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19">
+        <v>2013</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="18">
+        <v>2014</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19">
+        <v>2015</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="18">
+        <v>2016</v>
+      </c>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27076,8 +27285,38 @@
         <f t="shared" si="0"/>
         <v>0.47220000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -27097,8 +27336,38 @@
         <f t="shared" si="0"/>
         <v>0.46389999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7" s="20">
+        <v>71</v>
+      </c>
+      <c r="I7" s="20">
+        <v>51</v>
+      </c>
+      <c r="J7" s="21">
+        <v>70</v>
+      </c>
+      <c r="K7" s="21">
+        <v>66</v>
+      </c>
+      <c r="L7" s="20">
+        <v>83</v>
+      </c>
+      <c r="M7" s="20">
+        <v>59</v>
+      </c>
+      <c r="N7" s="21">
+        <v>63</v>
+      </c>
+      <c r="O7" s="21">
+        <v>48</v>
+      </c>
+      <c r="P7" s="20">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -27118,8 +27387,33 @@
         <f t="shared" si="0"/>
         <v>0.39250000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8" s="22"/>
+      <c r="I8" s="20">
+        <f>SUM(H7:I7)</f>
+        <v>122</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21">
+        <f>SUM(J7:K7)</f>
+        <v>136</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20">
+        <f>SUM(L7:M7)</f>
+        <v>142</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21">
+        <f>SUM(N7:O7)</f>
+        <v>111</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
+        <f>SUM(P7:Q7)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27139,8 +27433,11 @@
         <f t="shared" si="0"/>
         <v>0.36230000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -27160,8 +27457,28 @@
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10" s="18">
+        <v>2018</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19">
+        <v>2019</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18">
+        <v>2020</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19">
+        <v>2021</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="18">
+        <v>2022</v>
+      </c>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -27181,8 +27498,38 @@
         <f t="shared" si="0"/>
         <v>0.32350000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H11" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -27202,8 +27549,38 @@
         <f t="shared" si="0"/>
         <v>0.2762</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H12" s="20">
+        <v>27</v>
+      </c>
+      <c r="I12" s="20">
+        <v>29</v>
+      </c>
+      <c r="J12" s="21">
+        <v>20</v>
+      </c>
+      <c r="K12" s="21">
+        <v>17</v>
+      </c>
+      <c r="L12" s="20">
+        <v>37</v>
+      </c>
+      <c r="M12" s="20">
+        <v>14</v>
+      </c>
+      <c r="N12" s="21">
+        <v>16</v>
+      </c>
+      <c r="O12" s="21">
+        <v>15</v>
+      </c>
+      <c r="P12" s="20">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -27223,8 +27600,33 @@
         <f t="shared" si="0"/>
         <v>0.27079999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
+        <f>SUM(H12:I12)</f>
+        <v>56</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21">
+        <f>SUM(J12:K12)</f>
+        <v>37</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
+        <f>SUM(L12:M12)</f>
+        <v>51</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21">
+        <f>SUM(N12:O12)</f>
+        <v>31</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20">
+        <f>SUM(P12:Q12)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -27244,8 +27646,11 @@
         <f t="shared" si="0"/>
         <v>0.22919999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -27265,8 +27670,28 @@
         <f t="shared" si="0"/>
         <v>0.1406</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H15" s="18">
+        <v>2018</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19">
+        <v>2019</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18">
+        <v>2020</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19">
+        <v>2021</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="18">
+        <v>2022</v>
+      </c>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>0.39285000000000003</v>
       </c>
@@ -27276,8 +27701,107 @@
       <c r="E16">
         <v>0.16905000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H17" s="22">
+        <f>H12/H7</f>
+        <v>0.38028169014084506</v>
+      </c>
+      <c r="I17" s="22">
+        <f>I12/I7</f>
+        <v>0.56862745098039214</v>
+      </c>
+      <c r="J17" s="23">
+        <f>J12/J7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K17" s="23">
+        <f>K12/K7</f>
+        <v>0.25757575757575757</v>
+      </c>
+      <c r="L17" s="22">
+        <f>L12/L7</f>
+        <v>0.44578313253012047</v>
+      </c>
+      <c r="M17" s="22">
+        <f>M12/M7</f>
+        <v>0.23728813559322035</v>
+      </c>
+      <c r="N17" s="23">
+        <f>N12/N7</f>
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="O17" s="23">
+        <f>O12/O7</f>
+        <v>0.3125</v>
+      </c>
+      <c r="P17" s="22">
+        <f>P12/P7</f>
+        <v>0.328125</v>
+      </c>
+      <c r="Q17" s="22">
+        <f>Q12/Q7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
+        <f>I13/I8</f>
+        <v>0.45901639344262296</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23">
+        <f>K13/K8</f>
+        <v>0.27205882352941174</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22">
+        <f>M13/M8</f>
+        <v>0.35915492957746481</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23">
+        <f>O13/O8</f>
+        <v>0.27927927927927926</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22">
+        <f>Q13/Q8</f>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>165</v>
       </c>
@@ -27294,7 +27818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -27315,7 +27839,7 @@
         <v>0.70189999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -27336,7 +27860,7 @@
         <v>0.57140000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -27357,7 +27881,7 @@
         <v>0.53390000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -27378,7 +27902,7 @@
         <v>0.53210000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -27399,7 +27923,7 @@
         <v>0.46389999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -27420,7 +27944,7 @@
         <v>0.33019999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -27441,7 +27965,7 @@
         <v>0.2762</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -27468,6 +27992,9 @@
       <sortCondition descending="1" ref="F1:F15"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -27477,7 +28004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E2C5F3-11BE-47EF-B6B5-EC84C63692DF}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
@@ -27946,8 +28473,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C114"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30709,8 +31236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA34F1EB-4EB7-4D32-A23E-609DA1112FCD}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:K23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34525,7 +35052,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
